--- a/public/files/template/inventory/kibe.xlsx
+++ b/public/files/template/inventory/kibe.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>KARTU INVENTARIS BARANG (KIB) E</t>
   </si>
@@ -165,6 +165,27 @@
   </si>
   <si>
     <t>[a.tahun_cetak_beli]</t>
+  </si>
+  <si>
+    <t>[b.kd_prov]</t>
+  </si>
+  <si>
+    <t>[b.kd_kab]</t>
+  </si>
+  <si>
+    <t>BIDANG KESEHATAN</t>
+  </si>
+  <si>
+    <t>SUDIN KESEHATAN MASYARAKAT</t>
+  </si>
+  <si>
+    <t>PKM [b.kd_kec]</t>
+  </si>
+  <si>
+    <t>PKM [b.kd_upb]</t>
+  </si>
+  <si>
+    <t>[b.kode]</t>
   </si>
 </sst>
 </file>
@@ -174,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +214,12 @@
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -353,106 +380,112 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,56 +545,35 @@
           <cell r="B3" t="str">
             <v>Provinsi</v>
           </cell>
-          <cell r="G3" t="str">
-            <v>DAERAH KHUSUS IBUKOTA JAKARTA</v>
-          </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
             <v>Kab./Kota</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>KOTA JAKARTA TIMUR</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
             <v>Bidang</v>
           </cell>
-          <cell r="G5" t="str">
-            <v>BIDANG KESEHATAN</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
             <v>Unit Organisasi</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>SUDIN KESEHATAN MASYARAKAT</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
             <v>Sub Unit Organisasi</v>
           </cell>
-          <cell r="G7" t="str">
-            <v>PKM KEC. MATRAMAN</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
             <v>U P B</v>
           </cell>
-          <cell r="G8" t="str">
-            <v>PKM KEC. MATRAMAN</v>
-          </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
             <v xml:space="preserve">NO. KODE LOKASI </v>
-          </cell>
-          <cell r="G9" t="str">
-            <v>11.09.05.07.01.09.57.00</v>
           </cell>
         </row>
       </sheetData>
@@ -864,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,66 +897,64 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="2" t="str">
         <f>'[1]KIB A'!B3</f>
         <v>Provinsi</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="str">
-        <f>'[1]KIB A'!G3</f>
-        <v>DAERAH KHUSUS IBUKOTA JAKARTA</v>
+      <c r="G3" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -957,22 +967,20 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="2" t="str">
         <f>'[1]KIB A'!B4</f>
         <v>Kab./Kota</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="str">
-        <f>'[1]KIB A'!G4</f>
-        <v>KOTA JAKARTA TIMUR</v>
+      <c r="G4" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -985,22 +993,20 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="2" t="str">
         <f>'[1]KIB A'!B5</f>
         <v>Bidang</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="str">
-        <f>'[1]KIB A'!G5</f>
-        <v>BIDANG KESEHATAN</v>
+      <c r="G5" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1013,22 +1019,20 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="2" t="str">
         <f>'[1]KIB A'!B6</f>
         <v>Unit Organisasi</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="1" t="str">
-        <f>'[1]KIB A'!G6</f>
-        <v>SUDIN KESEHATAN MASYARAKAT</v>
+      <c r="G6" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1041,24 +1045,22 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="2" t="str">
         <f>'[1]KIB A'!B7</f>
         <v>Sub Unit Organisasi</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="str">
-        <f>'[1]KIB A'!G7</f>
-        <v>PKM KEC. MATRAMAN</v>
+      <c r="G7" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1071,22 +1073,20 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="2" t="str">
         <f>'[1]KIB A'!B8</f>
         <v>U P B</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="1" t="str">
-        <f>'[1]KIB A'!G8</f>
-        <v>PKM KEC. MATRAMAN</v>
+      <c r="G8" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1099,22 +1099,20 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="4" t="str">
+      <c r="B9" s="2" t="str">
         <f>'[1]KIB A'!B9</f>
         <v xml:space="preserve">NO. KODE LOKASI </v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="1" t="str">
-        <f>'[1]KIB A'!G9</f>
-        <v>11.09.05.07.01.09.57.00</v>
+      <c r="G9" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1126,252 +1124,245 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="28"/>
+      <c r="G12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="8" t="s">
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="14" t="s">
+      <c r="K12" s="28"/>
+      <c r="L12" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="M12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="7">
         <v>9</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18" t="s">
+      <c r="J15" s="7"/>
+      <c r="K15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="7">
         <v>12</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18">
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="33"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="22"/>
     </row>
     <row r="17" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="P17" s="25" t="s">
+      <c r="P17" s="14" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
@@ -1384,6 +1375,13 @@
     <mergeCell ref="M12:M14"/>
     <mergeCell ref="N12:N14"/>
     <mergeCell ref="O12:O14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/files/template/inventory/kibe.xlsx
+++ b/public/files/template/inventory/kibe.xlsx
@@ -454,6 +454,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -475,13 +481,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -877,7 +877,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G9"/>
+      <selection activeCell="D3" sqref="D3:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,47 +897,47 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -946,12 +946,10 @@
         <v>Provinsi</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="1"/>
@@ -972,12 +970,10 @@
         <v>Kab./Kota</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="E4" s="23" t="s">
         <v>47</v>
       </c>
       <c r="H4" s="1"/>
@@ -998,12 +994,10 @@
         <v>Bidang</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="E5" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H5" s="1"/>
@@ -1024,12 +1018,10 @@
         <v>Unit Organisasi</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>49</v>
       </c>
       <c r="H6" s="1"/>
@@ -1050,12 +1042,10 @@
         <v>Sub Unit Organisasi</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="E7" s="24" t="s">
         <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1078,12 +1068,10 @@
         <v>U P B</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="E8" s="24" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="1"/>
@@ -1104,12 +1092,10 @@
         <v xml:space="preserve">NO. KODE LOKASI </v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="E9" s="24" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="1"/>
@@ -1165,37 +1151,37 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="35"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="27" t="s">
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="32" t="s">
+      <c r="K12" s="30"/>
+      <c r="L12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="32" t="s">
+      <c r="M12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="32" t="s">
+      <c r="N12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="32" t="s">
+      <c r="O12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="P12" s="32" t="s">
+      <c r="P12" s="25" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1204,56 +1190,56 @@
       <c r="B13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
@@ -1363,6 +1349,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
@@ -1379,9 +1368,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="P12:P14"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
